--- a/planning/assets/formatsXlsx/Stock_Producto.xlsx
+++ b/planning/assets/formatsXlsx/Stock_Producto.xlsx
@@ -22,10 +22,10 @@
     <t>producto</t>
   </si>
   <si>
-    <t>plazo_maximo</t>
+    <t>plazo_minimo</t>
   </si>
   <si>
-    <t>plazo_habitual</t>
+    <t>plazo_maximo</t>
   </si>
 </sst>
 </file>
@@ -163,8 +163,8 @@
   <tableColumns count="4">
     <tableColumn name="referencia_producto" id="1"/>
     <tableColumn name="producto" id="2"/>
-    <tableColumn name="plazo_maximo" id="3"/>
-    <tableColumn name="plazo_habitual" id="4"/>
+    <tableColumn name="plazo_minimo" id="3"/>
+    <tableColumn name="plazo_maximo1" id="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -480,7 +480,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
